--- a/biology/Zoologie/Achatinidae/Achatinidae.xlsx
+++ b/biology/Zoologie/Achatinidae/Achatinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Achatinidae sont une famille d'escargots terrestres d'Afrique. Elle compte entre un et soixante genres, selon les classifications. Ses représentants les plus connus sont l'Escargot géant africain (Lissachatina fulica) et l'Escargot géant de l'ouest africain (Archachatina marginata).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Animal Diversity Web :
 Achatina Lamarck, 1799
@@ -576,7 +590,7 @@
 Tortaxis
 Xerocerastus
 Zootecus
-Selon ITIS      (5 mars 2024)[1] :
+Selon ITIS      (5 mars 2024) :
 Achatina Lamarck, 1799
 Allopeas H. B. Baker, 1935
 Cecilioides Férussac, 1814
@@ -584,7 +598,7 @@
 Opeas Albers, 1850
 Rumina Risso, 1826
 Subulina Beck, 1837
-Selon NCBI  (17 octobre 2020)[2] :
+Selon NCBI  (17 octobre 2020) :
 Achatina Lamarck, 1799
 Archachatina Albers, 1850
 Atopocochlis Crosse &amp; P. Fischer, 1888
